--- a/medicine/Enfance/Jojo_Lapin/Jojo_Lapin.xlsx
+++ b/medicine/Enfance/Jojo_Lapin/Jojo_Lapin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jojo Lapin (titre original : Br'er Rabbit) est une série de vingt-trois romans pour la jeunesse écrits par Enid Blyton entre 1934 et 1963. 
 En traduction française, le premier parut en 1969, le dernier en 1977 dans la célèbre collection Bibliothèque rose.
@@ -514,7 +526,9 @@
           <t>Titres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Jojo Lapin a des problèmes
